--- a/src/main/webapp/WEB-INF/etc/간트차트.xlsx
+++ b/src/main/webapp/WEB-INF/etc/간트차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\documentX\src\main\webapp\WEB-INF\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A508AC7-1C0F-4743-8258-05F766D55E3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F35B07A-75B7-4CEE-9AC8-AB5E7A438494}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{593B1131-A2FD-4735-94F9-165706F90929}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,15 +129,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF9B9B"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -308,71 +299,68 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,7 +685,7 @@
   <dimension ref="B1:M11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -711,196 +699,196 @@
   <sheetData>
     <row r="1" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="13" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="6">
         <v>10</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="6">
         <v>11</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="6">
         <v>12</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="6">
         <v>13</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="6">
         <v>14</v>
       </c>
-      <c r="K3" s="21">
-        <v>15</v>
-      </c>
-      <c r="L3" s="21">
-        <v>16</v>
-      </c>
-      <c r="M3" s="17"/>
+      <c r="K3" s="6">
+        <v>17</v>
+      </c>
+      <c r="L3" s="6">
+        <v>18</v>
+      </c>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="4"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
